--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaodt\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\git\cs-2d-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D18466-4044-4ADD-9BE8-F28AD387A3D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stats Overview" sheetId="2" r:id="rId1"/>
+    <sheet name="Unit Overview" sheetId="2" r:id="rId1"/>
     <sheet name="Weapons-Overview" sheetId="3" r:id="rId2"/>
     <sheet name="Weapons-Common" sheetId="1" r:id="rId3"/>
   </sheets>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="159">
   <si>
     <t>Type Availability</t>
   </si>
@@ -497,12 +498,18 @@
   </si>
   <si>
     <t>Blessings</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Weapon - Weapon rarity must be below character level / 20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -630,80 +637,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -743,11 +728,17 @@
       <xdr:rowOff>103663</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1628775" cy="352469"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -780,6 +771,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -903,7 +895,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -1230,120 +1222,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:A40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1351,105 +1351,102 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="6"/>
-  </cols>
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="B21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
+      <c r="B22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+      <c r="B23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="28" t="s">
+      <c r="B24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="28" t="s">
+      <c r="B25" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="28" t="s">
+      <c r="B26" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1460,1417 +1457,1374 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="21" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="16" style="25" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="25"/>
-    <col min="7" max="7" width="10.85546875" style="25" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="20.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="21" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="10.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18">
-        <v>1</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="16">
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="11">
         <v>20</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="18">
-        <v>1</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="16">
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11">
         <v>20</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="18">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="11">
         <v>20</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="18">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="16">
+      <c r="E5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="11">
         <v>15</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="18">
-        <v>1</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11">
         <v>10</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="18">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="16">
+      <c r="E7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="11">
         <v>30</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="18">
-        <v>1</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="25">
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="11">
         <v>25</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="E9" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="B9" s="18"/>
+      <c r="E9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="E10" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="16" t="s">
+      <c r="B10" s="18"/>
+      <c r="E10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="E11" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="B11" s="18"/>
+      <c r="E11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="13">
         <v>2</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="11">
         <v>15</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="13">
         <v>2</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="11">
         <v>20</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="18">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="11">
         <v>30</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="13">
         <v>2</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="11">
         <v>25</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="13">
         <v>2</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="11">
         <v>25</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="18">
-        <v>1</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="16">
+      <c r="E17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="11">
         <v>45</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="11">
         <v>45</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="18">
-        <v>1</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="13">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="11">
         <v>45</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="18">
-        <v>1</v>
-      </c>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="13">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="11">
         <v>45</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="18">
-        <v>1</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="16">
+      <c r="E21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="11">
         <v>40</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="18">
-        <v>1</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="16">
+      <c r="E22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="11">
         <v>40</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="13">
         <v>2</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="16">
+      <c r="E23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="11">
         <v>35</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="13">
         <v>2</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="11">
         <v>40</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="13">
         <v>2</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="11">
         <v>40</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="13">
         <v>2</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="11">
         <v>40</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="13">
         <v>2</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="11">
         <v>40</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="19" t="s">
+      <c r="B28" s="12"/>
+      <c r="G28" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="19" t="s">
+      <c r="B29" s="12"/>
+      <c r="G29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="13">
         <v>3</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="11">
         <v>25</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="13">
         <v>2</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="11">
         <v>55</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="18">
-        <v>1</v>
-      </c>
-      <c r="D32" s="15" t="s">
+      <c r="C32" s="13">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="16">
+      <c r="E32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="11">
         <v>35</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="18">
-        <v>1</v>
-      </c>
-      <c r="D33" s="15" t="s">
+      <c r="C33" s="13">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="16">
+      <c r="E33" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="11">
         <v>40</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="18">
-        <v>1</v>
-      </c>
-      <c r="D34" s="15" t="s">
+      <c r="C34" s="13">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="16">
+      <c r="E34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="11">
         <v>45</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="13">
         <v>2</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="11">
         <v>50</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="13">
         <v>2</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="16">
+      <c r="E36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="11">
         <v>55</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="1:8" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="13">
         <v>2</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="11">
         <v>30</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="18">
-        <v>1</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="C38" s="13">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="11">
         <v>30</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="13">
         <v>2</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="11">
         <v>35</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="18">
-        <v>1</v>
-      </c>
-      <c r="D40" s="10" t="s">
+      <c r="C40" s="13">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="25">
+      <c r="E40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="11">
         <v>95</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="18">
-        <v>1</v>
-      </c>
-      <c r="D41" s="10" t="s">
+      <c r="C41" s="13">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="25">
+      <c r="E41" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="11">
         <v>95</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="13">
         <v>2</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="11">
         <v>90</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="13">
         <v>2</v>
       </c>
-      <c r="E43" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="16">
+      <c r="E43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="11">
         <v>45</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="18">
-        <v>1</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="C44" s="13">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="25">
+      <c r="E44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="11">
         <v>55</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="13">
         <v>2</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="11">
         <v>45</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="13">
         <v>2</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46" s="11">
         <v>75</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="G46" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="18">
-        <v>1</v>
-      </c>
-      <c r="D47" s="10" t="s">
+      <c r="C47" s="13">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E47" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="25">
+      <c r="E47" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="11">
         <v>80</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="G47" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="29"/>
-    </row>
     <row r="49" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="29"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F50" s="25">
+      <c r="F50" s="11">
         <v>20</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="18">
-        <v>1</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="25">
+      <c r="C51" s="13">
+        <v>1</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="11">
         <v>45</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="18">
-        <v>1</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="C52" s="13">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E52" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="25">
+      <c r="E52" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="11">
         <v>45</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="24"/>
-      <c r="G53" s="20" t="s">
+      <c r="B53" s="18"/>
+      <c r="G53" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C54" s="18">
-        <v>1</v>
-      </c>
-      <c r="E54" s="25" t="s">
+      <c r="C54" s="13">
+        <v>1</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="25">
+      <c r="F54" s="11">
         <v>65</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="G54" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="24"/>
-      <c r="G55" s="26" t="s">
+      <c r="B55" s="18"/>
+      <c r="G55" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="29"/>
-    </row>
     <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="21" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="18">
-        <v>1</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="25">
+      <c r="C58" s="13">
+        <v>1</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="11">
         <v>45</v>
       </c>
-      <c r="G58" s="16" t="s">
+      <c r="G58" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="18">
-        <v>1</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="25">
+      <c r="C59" s="13">
+        <v>1</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="11">
         <v>55</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="G59" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="18">
-        <v>1</v>
-      </c>
-      <c r="D60" s="10" t="s">
+      <c r="C60" s="13">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E60" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="25">
+      <c r="E60" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="11">
         <v>40</v>
       </c>
-      <c r="G60" s="19" t="s">
+      <c r="G60" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="18">
-        <v>1</v>
-      </c>
-      <c r="D61" s="10" t="s">
+      <c r="C61" s="13">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="25">
+      <c r="E61" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="11">
         <v>55</v>
       </c>
-      <c r="G61" s="20" t="s">
+      <c r="G61" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="18">
-        <v>1</v>
-      </c>
-      <c r="D62" s="10" t="s">
+      <c r="C62" s="13">
+        <v>1</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E62" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="25">
+      <c r="E62" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="11">
         <v>65</v>
       </c>
-      <c r="G62" s="22" t="s">
+      <c r="G62" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="18">
-        <v>1</v>
-      </c>
-      <c r="D63" s="10" t="s">
+      <c r="C63" s="13">
+        <v>1</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E63" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="25">
+      <c r="E63" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="11">
         <v>65</v>
       </c>
-      <c r="G63" s="22" t="s">
+      <c r="G63" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="25">
+      <c r="F64" s="11">
         <v>65</v>
       </c>
-      <c r="G64" s="26" t="s">
+      <c r="G64" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H64" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="20" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="24"/>
-      <c r="G67" s="20" t="s">
+      <c r="B67" s="18"/>
+      <c r="G67" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="24"/>
-      <c r="G68" s="22" t="s">
+      <c r="B68" s="18"/>
+      <c r="G68" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="G69" s="26" t="s">
+      <c r="G69" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="20" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C72" s="18">
-        <v>1</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="25">
+      <c r="C72" s="13">
+        <v>1</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="11">
         <v>45</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="G72" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="24"/>
-      <c r="G73" s="19" t="s">
+      <c r="B73" s="18"/>
+      <c r="G73" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="24"/>
-      <c r="G74" s="20" t="s">
+      <c r="B74" s="18"/>
+      <c r="G74" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="24"/>
-      <c r="G75" s="22" t="s">
+      <c r="B75" s="18"/>
+      <c r="G75" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="18">
-        <v>1</v>
-      </c>
-      <c r="D76" s="10" t="s">
+      <c r="C76" s="13">
+        <v>1</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E76" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="25">
+      <c r="E76" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="11">
         <v>70</v>
       </c>
-      <c r="G76" s="26" t="s">
+      <c r="G76" s="19" t="s">
         <v>66</v>
       </c>
     </row>
